--- a/GDP/gdp_estimation_links.xlsx
+++ b/GDP/gdp_estimation_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/dgutierrezv_sura_com/Documents/Documents/GitHub/macro/GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD7CE2B8-3E15-4CF1-99E1-E94120D5294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AD7CE2B8-3E15-4CF1-99E1-E94120D5294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950BB836-EDFA-486A-8EA0-5767D810A238}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D37C4433-5AC4-461C-87EC-D29BF23E6206}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{D37C4433-5AC4-461C-87EC-D29BF23E6206}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>https://www.oecd.org/economy/outlook/forecastingmethodsandanalyticaltools.htm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://www.frontiersin.org/articles/10.3389/frai.2021.757864/full</t>
   </si>
@@ -409,31 +406,28 @@
   <dimension ref="B3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{39FB942D-248F-4A50-82E4-3BD876E5A48B}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{60175EC3-1060-461F-B0E4-E8C4B35B3795}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{63E06311-4877-4CE6-AE92-9E8F6C71A68A}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{60175EC3-1060-461F-B0E4-E8C4B35B3795}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{63E06311-4877-4CE6-AE92-9E8F6C71A68A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
